--- a/Robot Registro de facturas/Config/Config.xlsx
+++ b/Robot Registro de facturas/Config/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Variable</t>
   </si>
@@ -53,22 +53,31 @@
     <t>Carpeta de descarga de los archivos PDF de la ZFI081</t>
   </si>
   <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Archivos\UiTree.xml</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Archivos\UiTree.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\PDF</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Proveedores para exclusión y retenciones.xlsx</t>
-  </si>
-  <si>
     <t>Archivos de proveedores exclusivos y retenciones.</t>
   </si>
   <si>
     <t>strProveedoresRetenciones</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\PDF</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Archivos\UiTree.xml</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Archivos\UiTree.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Proveedores para exclusión y retenciones.xlsx</t>
+  </si>
+  <si>
+    <t>strZMM023xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\ZMM023\ZMM023TERPEL.xlsx</t>
+  </si>
+  <si>
+    <t>Archivo en excel de la ZMM023</t>
   </si>
 </sst>
 </file>
@@ -386,14 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -413,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -424,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -443,13 +453,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Robot Registro de facturas/Config/Config.xlsx
+++ b/Robot Registro de facturas/Config/Config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Variable</t>
   </si>
@@ -59,25 +59,16 @@
     <t>strProveedoresRetenciones</t>
   </si>
   <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\PDF</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Archivos\UiTree.xml</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Archivos\UiTree.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\Proveedores para exclusión y retenciones.xlsx</t>
-  </si>
-  <si>
-    <t>strZMM023xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\ZMM023\ZMM023TERPEL.xlsx</t>
-  </si>
-  <si>
-    <t>Archivo en excel de la ZMM023</t>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Archivos\UiTree.xml</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Archivos\UiTree.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\PDF</t>
+  </si>
+  <si>
+    <t>C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\Proveedores para exclusión y retenciones.xlsx</t>
   </si>
 </sst>
 </file>
@@ -395,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -434,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -445,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -460,17 +451,6 @@
       </c>
       <c r="C5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
